--- a/dataset_v1/task_sheet_answers/IncomeStatement2/8_IncomeStatement2/8_IncomeStatement2_gt1.xlsx
+++ b/dataset_v1/task_sheet_answers/IncomeStatement2/8_IncomeStatement2/8_IncomeStatement2_gt1.xlsx
@@ -1,115 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ActionTransformer\Excel_data\example_sheets_part1\task_sheet_answers\IncomeStatement2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9B30AB-131F-4574-98F1-EF661AD19C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9876" windowHeight="12360" xr2:uid="{507D42A9-D77B-465E-BC83-B81E50047239}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12360" windowWidth="9876" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Year</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sales</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Net Sales</t>
-  </si>
-  <si>
-    <t>Sales Return</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discounts and Allowances</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Overhead</t>
-  </si>
-  <si>
-    <t>Total Cost of Goods Sold</t>
-  </si>
-  <si>
-    <t>Gross Profit</t>
-  </si>
-  <si>
-    <t>Materials Charges</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Labor Charges</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="\$#,##0.00;\-\$#,##0.00"/>
+    <numFmt formatCode="\$#,##0.00;\-\$#,##0.00" numFmtId="164"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -121,13 +69,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.5999938962981048"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -142,39 +90,102 @@
     </border>
   </borders>
   <cellStyleXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="4">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="40% - Accent1 2" xfId="2" xr:uid="{D5FCBFF2-A15E-414F-852C-19839A8E6CBE}"/>
-    <cellStyle name="60% - Accent1 2" xfId="4" xr:uid="{20C37C5A-E1AB-45B5-97C5-F3DDA923F796}"/>
-    <cellStyle name="Accent1 2" xfId="3" xr:uid="{1F9E64E1-0405-4085-BC27-2EBA9A51C8D9}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 5" xfId="1" xr:uid="{508552CE-3394-4DC7-BEAA-176A5973C504}"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal 5" xfId="1"/>
+    <cellStyle name="40% - Accent1 2" xfId="2"/>
+    <cellStyle name="Accent1 2" xfId="3"/>
+    <cellStyle name="60% - Accent1 2" xfId="4"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -474,270 +485,293 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1776FB6-0062-4110-B3F3-8F7076D847A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="L2" xSplit="6" ySplit="1"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="topRight" activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection activeCell="K1" pane="topRight" sqref="K1"/>
+      <selection activeCell="E2" pane="bottomLeft" sqref="E2"/>
+      <selection activeCell="I23" pane="bottomRight" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="11.109375"/>
+    <col customWidth="1" max="3" min="3" style="2" width="12.88671875"/>
+    <col customWidth="1" max="4" min="4" style="2" width="23.6640625"/>
+    <col customWidth="1" max="6" min="6" style="2" width="17.109375"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="2" width="10"/>
+    <col customWidth="1" max="8" min="8" style="2" width="13"/>
+    <col customWidth="1" max="9" min="9" style="2" width="22.6640625"/>
+    <col customWidth="1" max="10" min="10" style="2" width="10.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row customHeight="1" ht="13.8" r="1" s="2">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Sales Return</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>Discounts and Allowances</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>Net Sales</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>Materials Charges</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>Labor Charges</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>Overhead</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>Total Cost of Goods Sold</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>Gross Profit</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3" t="n">
         <v>78000</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3" t="n">
         <v>3000</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3" t="n">
         <v>8000</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3" t="n">
         <v>9000</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="3" t="n">
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3" t="n">
         <v>73423</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3" t="n">
         <v>3884</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3" t="n">
         <v>1279</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3" t="n">
         <v>9613</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3" t="n">
         <v>9085</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3" t="n">
         <v>1900</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3" t="n">
         <v>78842</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3" t="n">
         <v>4234</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3" t="n">
         <v>1017</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3" t="n">
         <v>10765</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3" t="n">
         <v>7395</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3" t="n">
         <v>1980</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3" t="n">
         <v>86241</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3" t="n">
         <v>4413</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3" t="n">
         <v>1377</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3" t="n">
         <v>9736</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3" t="n">
         <v>7997</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3" t="n">
         <v>1899</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3" t="n">
         <v>85548</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3" t="n">
         <v>4073</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3" t="n">
         <v>898</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3" t="n">
         <v>7962</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3" t="n">
         <v>7939</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3" t="n">
         <v>1812</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3" t="n">
         <v>82394</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3" t="n">
         <v>4152</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3" t="n">
         <v>1827</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3" t="n">
         <v>9222</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3" t="n">
         <v>7536</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="3" t="n">
         <v>1733</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3" t="n">
         <v>82316</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3" t="n">
         <v>3492</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3" t="n">
         <v>911</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3" t="n">
         <v>9511</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="3" t="n">
         <v>7159</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="3" t="n">
         <v>1609</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3" t="n">
         <v>73296</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3" t="n">
         <v>3659</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3" t="n">
         <v>1755</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="3" t="n">
         <v>9740</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="3" t="n">
         <v>5807</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="3" t="n">
         <v>1483</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" s="0" t="n">
         <v>2023</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3" t="n">
         <v>68844</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3" t="n">
         <v>4387</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3" t="n">
         <v>1830</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="3" t="n">
         <v>9767</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="3" t="n">
         <v>7578</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="3" t="n">
         <v>1633</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>